--- a/quiz/quiz02_mental_arithmetic_level1.xlsx
+++ b/quiz/quiz02_mental_arithmetic_level1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OpenCV\mediapipe-gui-quiz\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python_Project\mediapipe-quiz\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D99003-0B36-4F53-B3BC-4F15DBA1CC01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7510A7-F410-463D-97F7-32B7794122C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">동일 레벨 반복횟수(1~10) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +178,10 @@
   </si>
   <si>
     <t>quiz02_mental_arithmetic_level1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="10"/>
       <c r="I1" s="3"/>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
@@ -797,16 +797,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5">
         <v>8</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -873,13 +873,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -960,7 +960,7 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -982,10 +982,10 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E8" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E9" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E10" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E11" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E12" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E13" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E14" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E15" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.4">
       <c r="E16" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="17" spans="5:61" x14ac:dyDescent="0.4">
       <c r="E17" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="18" spans="5:61" x14ac:dyDescent="0.4">
       <c r="E18" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="19" spans="5:61" x14ac:dyDescent="0.4">
       <c r="E19" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="20" spans="5:61" x14ac:dyDescent="0.4">
       <c r="E20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="21" spans="5:61" x14ac:dyDescent="0.4">
       <c r="E21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
